--- a/public/files/employee-info.xlsx
+++ b/public/files/employee-info.xlsx
@@ -15,21 +15,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>Programare</t>
-  </si>
-  <si>
-    <t>Angajat</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Serviciu</t>
-  </si>
-  <si>
-    <t>Preț</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>Prenume</t>
+  </si>
+  <si>
+    <t>Nume de familie</t>
+  </si>
+  <si>
+    <t>Adresă</t>
+  </si>
+  <si>
+    <t>Număr de telefon</t>
+  </si>
+  <si>
+    <t>Venituri (ultimele 30 de zile)</t>
+  </si>
+  <si>
+    <t>Manolache</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Baia Mare</t>
+  </si>
+  <si>
+    <t>0745701801</t>
+  </si>
+  <si>
+    <t>Petrascu</t>
+  </si>
+  <si>
+    <t>Rodica-Elena</t>
+  </si>
+  <si>
+    <t>Infrim</t>
+  </si>
+  <si>
+    <t>Mirabela</t>
+  </si>
+  <si>
+    <t>Danciu</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>Popescu</t>
+  </si>
+  <si>
+    <t>Mirela</t>
+  </si>
+  <si>
+    <t>Pap</t>
+  </si>
+  <si>
+    <t>Manuela-Ioana</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Mariana-Florica</t>
+  </si>
+  <si>
+    <t>Jurje</t>
+  </si>
+  <si>
+    <t>Loredana-Mariana</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Giuredea</t>
   </si>
 </sst>
 </file>
@@ -368,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,6 +454,176 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/employee-info.xlsx
+++ b/public/files/employee-info.xlsx
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>135.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -623,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>
